--- a/data/532/HKCSD/Hong Kong Dollar interest rates.xlsx
+++ b/data/532/HKCSD/Hong Kong Dollar interest rates.xlsx
@@ -407,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20129,6 +20129,43 @@
         </is>
       </c>
       <c r="I531" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n"/>
+      <c r="B532" s="1" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>[-§31]</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="F532" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>[-§31]</t>
+        </is>
+      </c>
+      <c r="I532" t="n">
         <v>5</v>
       </c>
     </row>
@@ -20178,7 +20215,7 @@
     <mergeCell ref="A494:A505"/>
     <mergeCell ref="A506:A517"/>
     <mergeCell ref="A518:A529"/>
-    <mergeCell ref="A530:A531"/>
+    <mergeCell ref="A530:A532"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
